--- a/biology/Zoologie/Calxattus_serratus/Calxattus_serratus.xlsx
+++ b/biology/Zoologie/Calxattus_serratus/Calxattus_serratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calxattus serratus, unique représentant du genre Calxattus, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calxattus serratus, unique représentant du genre Calxattus, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Yunnan en Chine[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Yunnan en Chine,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 9,60 mm[3].
-Le mâle décrit Wang, Yu et Zhang en 2023 mesure 7,04 mm et la femelle 7,03 mm, les mâles mesurent de 5,75 à 7,04 mm et les femelles de 7,11 à 9,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 9,60 mm.
+Le mâle décrit Wang, Yu et Zhang en 2023 mesure 7,04 mm et la femelle 7,03 mm, les mâles mesurent de 5,75 à 7,04 mm et les femelles de 7,11 à 9,60 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Spartaeus serratus par Yang, Liu, Liu et Peng en 2017. Elle est placée dans le genre Calxattus par Wang, Yu et Zhang en 2023[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Spartaeus serratus par Yang, Liu, Liu et Peng en 2017. Elle est placée dans le genre Calxattus par Wang, Yu et Zhang en 2023.
 Ce genre a été décrit par Wang, Yu et Zhang en 2023 dans les Salticidae.
 </t>
         </is>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Yang, Liu, Liu &amp; Peng, 2017 : « Five new species of Spartaeus Thorell, 1891 from China (Araneae: Salticidae). » Zootaxa, no 4303(3), p. 379-394.
 Wang, Yu &amp; Zhang, 2023 : « Calxattus gen. nov. from China (Araneae: Salticidae: Spartaeinae: Spartaeini), with redescription of the type species. » Acta Arachnologica Sinica, vol. 32, no 1, p. 8-15.</t>
